--- a/taskManagementSystem/Documentation/Test Matrix - Shadarien Williams.xlsx
+++ b/taskManagementSystem/Documentation/Test Matrix - Shadarien Williams.xlsx
@@ -1,34 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de18c80e36a8eb27/School/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\shadarien\coding_projects\taskManagementSystem\taskManagementSystem\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42AB5112-EEFA-41D5-A35D-973B80004C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49A78B0-5AC7-45D1-BEC8-C55C57CCBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26415" yWindow="0" windowWidth="28365" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="-120" windowWidth="56745" windowHeight="16440" xr2:uid="{6149880A-344E-4E42-8A7C-F4C6EFDC85F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$15</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Recipe Recommender System</t>
+  </si>
+  <si>
+    <t>Shadarien Williams</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -48,77 +62,115 @@
     <t>_</t>
   </si>
   <si>
-    <t>The system will display recipe recommendations based on user preferences and dietary restrictions.</t>
-  </si>
-  <si>
-    <t>A test run will be conducted using mock user profiles with varying preferences and dietary restrictions to ensure that the system accurately recommends suitable recipes.</t>
-  </si>
-  <si>
-    <t>The system shall provide a user-friendly interface accessible via a web application.</t>
-  </si>
-  <si>
-    <t>The web application interface will be tested for usability by allowing users to navigate through the system and perform common tasks such as searching for recipes, filtering options, and providing feedback.</t>
-  </si>
-  <si>
-    <t>The system shall integrate features for filtering recipes based on ingredients, cooking time, and difficulty level.</t>
-  </si>
-  <si>
-    <t>Various filter options will be tested by applying filters to a database of recipes and verifying that the system correctly displays filtered results based on selected criteria.</t>
-  </si>
-  <si>
-    <t>User authentication and profile management functionality must be implemented.</t>
-  </si>
-  <si>
-    <t>User authentication will be tested by attempting to log in with both valid and invalid credentials, while profile management features will be tested by allowing users to update their profiles and preferences.</t>
-  </si>
-  <si>
-    <t>The recipe recommendation engine must analyze user preferences and dietary restrictions.</t>
-  </si>
-  <si>
-    <t>The recommendation engine will be tested by inputting different user profiles and verifying that the recommended recipes align with their preferences and dietary restrictions.</t>
-  </si>
-  <si>
-    <t>A user feedback and rating system for recipes must be implemented.</t>
-  </si>
-  <si>
-    <t>Users will be able to provide feedback and ratings for recipes, and the system will be tested to ensure that feedback is properly recorded and reflected in recipe recommendations.</t>
-  </si>
-  <si>
-    <t>The system must undergo comprehensive testing to ensure reliability and accuracy.</t>
-  </si>
-  <si>
-    <t>A series of tests will be conducted to verify the system's functionality, including unit tests for individual components, integration tests for system modules, and end-to-end tests to simulate user interactions.</t>
-  </si>
-  <si>
-    <t>Deployment on a server and initial support and maintenance must be provided.</t>
-  </si>
-  <si>
-    <t>The web application will be deployed on a server, and ongoing support and maintenance will be provided to address any issues that arise post-deployment.</t>
-  </si>
-  <si>
-    <t>Recipe Recommender System</t>
-  </si>
-  <si>
-    <t>Shadarien Williams</t>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>1. Navigate to the registration page
+2. Enter user details (firstName, lastName, email, contactNumber, password)
+3. Submit the form</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. Navigate to the login page
+2. Enter valid credentials
+3. Click login</t>
+  </si>
+  <si>
+    <t>Task Creation</t>
+  </si>
+  <si>
+    <t>1. Navigate to the task creation page
+2. Enter task details (title, description, due date, priority)
+3. Submit the task form</t>
+  </si>
+  <si>
+    <t>Task Assignment</t>
+  </si>
+  <si>
+    <t>1. As an admin or manager, navigate to the task list
+2. Assign a task to a user
+3. Check that the user is now associated with the task</t>
+  </si>
+  <si>
+    <t>View Assigned Tasks</t>
+  </si>
+  <si>
+    <t>1. Log in as a user
+2. Navigate to the "My Tasks" page
+3. View the list of tasks assigned to the logged-in user</t>
+  </si>
+  <si>
+    <t>Task Completion Status</t>
+  </si>
+  <si>
+    <t>1. Select a task from the task list
+2. Mark the task as completed
+3. Verify that the task is marked as complete</t>
+  </si>
+  <si>
+    <t>Admin Task Overview</t>
+  </si>
+  <si>
+    <t>1. Log in as admin
+2. Navigate to the admin dashboard
+3. View all created and assigned tasks</t>
+  </si>
+  <si>
+    <t>Password Hashing for User Security</t>
+  </si>
+  <si>
+    <t>1. Register a new user
+2. Verify that the password is stored in a hashed format in the database</t>
+  </si>
+  <si>
+    <t>Task History (Audit Logs)</t>
+  </si>
+  <si>
+    <t>1. Modify or delete a task
+2. Check the task history or audit logs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,37 +179,7 @@
       <i/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,49 +221,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -271,6 +250,34 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -299,56 +306,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,39 +394,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -462,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -573,13 +589,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -588,6 +597,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,210 +668,227 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31960739-0753-4BB7-B746-8D5D5164F33E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="1" max="16384" width="26.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="328.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="314.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -863,6 +896,5 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>